--- a/99_review/review5/06_レビュー結果記録(第2反復実装).xlsx
+++ b/99_review/review5/06_レビュー結果記録(第2反復実装).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22116F19-A3CB-487E-9077-C119B8AB4271}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{22116F19-A3CB-487E-9077-C119B8AB4271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0782D6BA-BB93-47B6-93BC-88388B6398D5}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="480" windowWidth="15390" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -386,38 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤坂講師、小杉さん</t>
-    <rPh sb="0" eb="2">
-      <t>アカサカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コスギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤坂講師、小杉さん、今村、落合、鈴木、竹田、長嶺</t>
-    <rPh sb="10" eb="12">
-      <t>イマムラ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オチアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タケダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナガミネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その場で「合格」記入済み</t>
     <rPh sb="2" eb="3">
       <t>バ</t>
@@ -434,13 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小杉さん</t>
-    <rPh sb="0" eb="2">
-      <t>コスギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角スペースの挿入が一部分ずれている</t>
     <rPh sb="0" eb="2">
       <t>ハンカク</t>
@@ -499,13 +462,22 @@
       <t>ゴウカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小杉様</t>
+  </si>
+  <si>
+    <t>小杉様、赤坂講師、今村、落合、鈴木、竹田、長嶺</t>
+  </si>
+  <si>
+    <t>小杉様、赤坂講師</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -884,50 +856,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,7 +1354,7 @@
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1390,11 +1362,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1402,11 +1374,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
@@ -1414,67 +1386,67 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="B8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1482,11 +1454,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
@@ -1494,21 +1466,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="15" t="s">
         <v>45</v>
       </c>
@@ -1516,53 +1488,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
@@ -1573,6 +1545,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1583,17 +1566,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1617,7 +1589,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1627,7 +1599,7 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1664,16 +1636,16 @@
         <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="10">
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1681,22 +1653,22 @@
         <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G3" s="10">
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1705,7 +1677,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1714,7 +1686,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1723,7 +1695,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1732,7 +1704,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1741,7 +1713,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1750,7 +1722,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1759,7 +1731,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1768,7 +1740,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1777,7 +1749,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1786,7 +1758,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1795,7 +1767,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1804,7 +1776,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1813,7 +1785,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1822,7 +1794,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1831,7 +1803,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1840,7 +1812,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1849,7 +1821,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1858,7 +1830,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1867,7 +1839,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1899,7 +1871,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1907,11 +1879,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1919,11 +1891,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1932,67 +1904,67 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2000,11 +1972,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -2012,11 +1984,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -2024,11 +1996,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
@@ -2036,49 +2008,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
@@ -2089,6 +2061,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2098,18 +2082,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2133,7 +2105,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2143,7 +2115,7 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="59.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2189,7 +2161,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2198,7 +2170,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2207,7 +2179,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2216,7 +2188,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2225,7 +2197,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2234,7 +2206,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2243,7 +2215,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2252,7 +2224,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2261,7 +2233,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2270,7 +2242,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2279,7 +2251,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2288,7 +2260,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2297,7 +2269,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2306,7 +2278,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2315,7 +2287,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2324,7 +2296,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2333,7 +2305,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2342,7 +2314,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2351,7 +2323,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2360,7 +2332,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2369,7 +2341,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2400,15 +2372,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2592,6 +2555,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
   <ds:schemaRefs>
@@ -2609,14 +2581,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08279E1-C0AF-422B-953F-A47D1BFA3011}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2632,4 +2596,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>